--- a/analysis/conv07_stat.xlsx
+++ b/analysis/conv07_stat.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="deletions" sheetId="2" r:id="rId2"/>
+    <sheet name="insertions" sheetId="3" r:id="rId3"/>
+    <sheet name="glides" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="115">
   <si>
     <t>s-x</t>
   </si>
@@ -701,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,24 +1646,589 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/analysis/conv07_stat.xlsx
+++ b/analysis/conv07_stat.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="116">
   <si>
     <t>s-x</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>z-x</t>
+  </si>
+  <si>
+    <t>G insertion</t>
   </si>
 </sst>
 </file>
@@ -700,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -1119,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -1127,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -1151,7 +1154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -1159,23 +1162,29 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>19</v>
       </c>
       <c r="B57">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>63</v>
       </c>
       <c r="B58">
         <v>18</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -1183,7 +1192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -1191,7 +1200,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -1199,7 +1208,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -1207,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -1215,7 +1224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>34</v>
       </c>
@@ -1479,7 +1488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>87</v>
       </c>
@@ -1487,7 +1496,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>105</v>
       </c>
@@ -1495,7 +1504,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -1503,7 +1512,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>50</v>
       </c>
@@ -1511,7 +1520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -1519,23 +1528,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>83</v>
       </c>
       <c r="B102">
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>51</v>
       </c>
       <c r="B103">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -1543,7 +1558,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>55</v>
       </c>
@@ -1551,7 +1566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -1559,7 +1574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>25</v>
       </c>
@@ -1567,7 +1582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>68</v>
       </c>
@@ -1575,7 +1590,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>77</v>
       </c>
@@ -1583,7 +1598,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>98</v>
       </c>
@@ -1591,7 +1606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>72</v>
       </c>
@@ -1599,7 +1614,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>102</v>
       </c>
